--- a/data/trans_bre/P18_3_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_3_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>-4,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,39</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-9,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,32%</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>14,61%</t>
+          <t>-4,29</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>-5,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>36,38%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-6,51%</t>
+          <t>-17,29%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,87%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,86%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-5,92%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 14,22</t>
+          <t>-14,85; 5,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 12,8</t>
+          <t>-10,62; 7,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 24,69</t>
+          <t>-23,76; -2,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 18,58</t>
+          <t>-17,73; 4,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,8; 11,13</t>
+          <t>-21,69; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,61; 65,26</t>
+          <t>-11,86; 16,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,63; 82,55</t>
+          <t>-16,31; 7,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,15; 155,05</t>
+          <t>-19,36; 7,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-10,03; 106,21</t>
+          <t>-12,85; 10,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 31,28</t>
+          <t>-29,29; -4,23</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,8; 6,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-27,06; 1,91</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-17,58; 35,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-20,77; 11,19</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,85</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,46</t>
+          <t>-10,54</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>-14,24</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>-5,93</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>102,94%</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,83%</t>
+          <t>-6,95%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>95,6%</t>
+          <t>-11,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>23,79%</t>
+          <t>-3,22%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-16,69%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-7,9%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>0,47%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 13,9</t>
+          <t>-13,95; 2,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,73; 17,05</t>
+          <t>-19,44; -2,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 12,25</t>
+          <t>-11,31; 10,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 21,7</t>
+          <t>-21,85; -5,93</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 15,89</t>
+          <t>-11,84; 23,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 115,41</t>
+          <t>-16,67; 5,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,47; 250,19</t>
+          <t>-11,13; 12,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 89,86</t>
+          <t>-16,14; 2,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,47; 188,99</t>
+          <t>-21,15; -3,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-16,73; 83,44</t>
+          <t>-13,84; 15,36</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-25,06; -7,54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-15,21; 44,28</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-20,94; 7,66</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-15,09; 21,01</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,9%</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,52%</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-10,52%</t>
+          <t>-3,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,82%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-4,44%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,12%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,76%</t>
         </is>
       </c>
     </row>
@@ -934,52 +1066,72 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 10,21</t>
+          <t>-9,43; 4,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 4,85</t>
+          <t>-7,16; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 4,04</t>
+          <t>-4,65; 8,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 10,25</t>
+          <t>-9,97; 6,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 7,8</t>
+          <t>-11,26; 7,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 63,58</t>
+          <t>-8,06; 8,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-46,59; 31,65</t>
+          <t>-9,64; 10,64</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-35,06; 24,68</t>
+          <t>-11,19; 5,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 55,04</t>
+          <t>-8,14; 9,73</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-28,96; 38,44</t>
+          <t>-5,61; 10,69</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-12,3; 9,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 10,7</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 11,79</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-12,95; 17,26</t>
         </is>
       </c>
     </row>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>-11,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-5,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,64</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,15</t>
+          <t>-10,19</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,67%</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,29%</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>-13,65%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>-6,7%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>-6,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-13,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-4,49%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-5,15%</t>
         </is>
       </c>
     </row>
@@ -1054,52 +1226,72 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,9; 18,18</t>
+          <t>-17,81; -5,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 12,85</t>
+          <t>-12,51; 2,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 11,49</t>
+          <t>-11,67; 2,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 16,99</t>
+          <t>-17,24; -2,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 9,8</t>
+          <t>-11,57; 5,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>31,4; 156,81</t>
+          <t>-9,82; 9,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,91; 106,87</t>
+          <t>-12,95; 6,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 62,85</t>
+          <t>-20,19; -6,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 88,97</t>
+          <t>-14,38; 2,97</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 31,12</t>
+          <t>-14,53; 3,58</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,36; -3,73</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,48; 9,14</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 17,72</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 10,4</t>
         </is>
       </c>
     </row>
@@ -1116,52 +1308,72 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>12,74</t>
+          <t>-12,74</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>-9,58</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>14,0</t>
+          <t>-14,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>8,92</t>
+          <t>-6,68</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>114,07%</t>
+          <t>-8,92</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>55,89%</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>40,49%</t>
+          <t>-14,35%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>85,17%</t>
+          <t>-11,33%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>37,94%</t>
+          <t>-7,49%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-17,02%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-8,74%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-11,66%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-12,73%</t>
         </is>
       </c>
     </row>
@@ -1174,52 +1386,72 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,35; 19,65</t>
+          <t>-19,94; -5,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,55; 17,62</t>
+          <t>-17,28; -1,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 13,92</t>
+          <t>-13,13; 1,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,74; 21,67</t>
+          <t>-21,85; -5,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,35; 17,23</t>
+          <t>-15,05; 2,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,01; 226,66</t>
+          <t>-17,75; 0,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,41; 150,99</t>
+          <t>-18,23; 1,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 112,96</t>
+          <t>-21,9; -6,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,89; 168,38</t>
+          <t>-19,44; -1,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 94,63</t>
+          <t>-15,05; 2,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-25,52; -7,63</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-19,15; 3,95</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-22,07; 0,18</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-25,57; 1,64</t>
         </is>
       </c>
     </row>
@@ -1236,52 +1468,72 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-4,75</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>11,46</t>
+          <t>-13,22</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>10,13</t>
+          <t>-12,1</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>18,08</t>
+          <t>-14,19</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>-18,08</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>52,6%</t>
+          <t>-11,59</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>57,47%</t>
+          <t>-5,66%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>99,2%</t>
+          <t>-16,29%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-15,08%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-18,74%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-22,11%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-17,31%</t>
         </is>
       </c>
     </row>
@@ -1294,52 +1546,72 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 11,29</t>
+          <t>-11,57; 3,9</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 18,99</t>
+          <t>-17,42; 3,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 20,28</t>
+          <t>-22,22; -3,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 19,13</t>
+          <t>-20,77; -1,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 30,01</t>
+          <t>-24,75; -2,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-22,36; 95,73</t>
+          <t>-30,31; -6,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 157,47</t>
+          <t>-23,56; 0,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 139,0</t>
+          <t>-13,14; 4,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 130,64</t>
+          <t>-20,06; 4,55</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>26,59; 233,65</t>
+          <t>-26,48; -5,0</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-24,75; -2,15</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-31,13; -3,41</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-35,28; -8,99</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-32,47; 0,69</t>
         </is>
       </c>
     </row>
@@ -1356,52 +1628,72 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>-6,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>-5,9</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>-6,04</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,67</t>
+          <t>-9,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>38,94%</t>
+          <t>-4,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>32,78%</t>
+          <t>-4,81</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>29,16%</t>
+          <t>-8,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>-7,04%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>17,44%</t>
+          <t>-7,62%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-12,27%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-7,8%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-6,92%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-7,14%</t>
         </is>
       </c>
     </row>
@@ -1414,66 +1706,93 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 9,96</t>
+          <t>-9,65; -3,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,2</t>
+          <t>-9,09; -2,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,66; 9,4</t>
+          <t>-9,36; -2,1</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,94; 13,01</t>
+          <t>-13,72; -6,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,43</t>
+          <t>-10,23; -0,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,73; 63,41</t>
+          <t>-9,19; -0,22</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,14; 64,18</t>
+          <t>-9,14; -0,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 51,48</t>
+          <t>-11,5; -4,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>26,3; 70,97</t>
+          <t>-10,67; -3,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 35,53</t>
+          <t>-11,5; -2,7</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-16,81; -7,9</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-13,57; -0,88</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-12,45; -0,32</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-13,32; -0,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
